--- a/controle_fiis_exportado.xlsx
+++ b/controle_fiis_exportado.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aportes" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proventos" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rendimentos" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,12 +443,52 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>tipo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>quantidade</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dy_mes</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>dy_ano</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>dy_percentual</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>dv_ano</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>dv_mes</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>data_com</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>data_cadastrado</t>
         </is>
       </c>
     </row>
@@ -457,11 +498,41 @@
           <t>BTCI11</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>11</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PAPEL</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>9.18</v>
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>07/08/2025</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>22/07/2025</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -511,7 +582,100 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10/07/2025</t>
+          <t>22/07/2025</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>FII</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>QTDE COTAS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ULTIMO PREÇO</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PROVENTOS</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>RENDIMENTO MÊS</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RENDIMENTO ANO</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>DATA COM</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>DATA QUE FOI GERADA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BTCI11</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>613.5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>07/08/2025</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>22/07/2025</t>
         </is>
       </c>
     </row>

--- a/controle_fiis_exportado.xlsx
+++ b/controle_fiis_exportado.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,10 +510,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>1.12</v>
+        <v>0.09</v>
       </c>
       <c r="F2" t="n">
-        <v>12.27</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -532,6 +532,45 @@
       <c r="K2" t="inlineStr">
         <is>
           <t>22/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>23/07/2025</t>
         </is>
       </c>
     </row>
@@ -597,7 +636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,7 +672,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>RENDIMENTO ANO</t>
+          <t>RENDIMENTO ANO APROXIMADO</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -650,32 +689,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>23/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>BTCI11</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>50</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.1</v>
       </c>
-      <c r="E2" t="n">
-        <v>56.00000000000001</v>
-      </c>
-      <c r="F2" t="n">
-        <v>613.5</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>60</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>07/08/2025</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>22/07/2025</t>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>23/07/2025</t>
         </is>
       </c>
     </row>

--- a/controle_fiis_exportado.xlsx
+++ b/controle_fiis_exportado.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aportes" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proventos" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rendimentos" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vendas" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rendimentos" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,50 +444,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>setor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>quantidade</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>liquidez</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>vacancia</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>dy_mes</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>dy_ano</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>dy_percentual</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>dv_ano</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>dv_mes</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>data_com</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>data_cadastrado</t>
         </is>
@@ -500,20 +521,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>PAPEL</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>50</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.09</v>
-      </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -524,12 +547,24 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>07/08/2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>22/07/2025</t>
         </is>
@@ -538,39 +573,212 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>BTCI11</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PAPEL</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BTCI11</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PAPEL</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Papel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>25/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
         <v>10</v>
       </c>
-      <c r="D3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>23/07/2025</t>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>25/07/2025</t>
         </is>
       </c>
     </row>
@@ -585,7 +793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,6 +830,21 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>22/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25/07/2025</t>
         </is>
       </c>
     </row>
@@ -636,7 +859,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,37 +893,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>SETOR</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>QTDE COTAS</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ULTIMO PREÇO</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>PREÇO MÉDIO</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>VALOR ATUAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>P/VP</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>VACÂNCIA %</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>PROVENTOS</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>RENDIMENTO MÊS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>RENDIMENTO ANO APROXIMADO</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>LUCRO/PREJUÍZO</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>DATA COM</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>DATA QUE FOI GERADA</t>
         </is>
       </c>
     </row>
@@ -692,27 +953,39 @@
           <t>A</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>10</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Híbrido</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>23/07/2025</t>
-        </is>
-      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -720,31 +993,83 @@
           <t>BTCI11</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>50</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>9.199999999999999</v>
+        <v>111</v>
       </c>
       <c r="D3" t="n">
+        <v>9.175495495495495</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1018.48</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.1</v>
       </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>60</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>07/08/2025</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>23/07/2025</t>
-        </is>
-      </c>
+      <c r="I3" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Papel</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
